--- a/client/public/templates/قالب_2.xlsx
+++ b/client/public/templates/قالب_2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\قوالب\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\محمد\قوالب\client\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9CEAB718-1152-4C0F-8E73-5A851E93CACF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92F78999-A9DE-4C90-AD33-E0A5A6A0BF2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{34EBFA33-6A0D-459A-AB7B-B33E1F3520BE}"/>
   </bookViews>
@@ -180,12 +180,6 @@
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -208,6 +202,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -528,7 +528,7 @@
   <dimension ref="B1:I8"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -537,112 +537,112 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
     </row>
     <row r="2" spans="2:9" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
     </row>
     <row r="3" spans="2:9" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="2:9" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="2"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
     </row>
     <row r="5" spans="2:9" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="6"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
     </row>
     <row r="6" spans="2:9" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="2"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
     </row>
     <row r="7" spans="2:9" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="6"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
     </row>
     <row r="8" spans="2:9" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="2"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
